--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\UipathProcesses\RoboticEnterpriseFramework For Jira Bot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D02218-E882-4392-A224-B40F11CA1294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD0D38-B5A4-4E75-9089-230D60DA4867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,6 @@
     <t>AttachmentFilePath</t>
   </si>
   <si>
-    <t>"R:\UipathProcesses\RoboticEnterpriseFramework For Jira Bot\Data\Input\"</t>
-  </si>
-  <si>
-    <t>"R:\UipathProcesses\RoboticEnterpriseFramework For Jira Bot\Data\Output\BuildTable.xlsx"</t>
-  </si>
-  <si>
     <t>BrowserURL</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\Output\BuildTable.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Input</t>
   </si>
 </sst>
 </file>
@@ -578,12 +578,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -622,7 +622,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
@@ -631,7 +631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -669,7 +669,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -678,16 +678,16 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1693,12 +1693,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1735,7 +1735,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1860,7 +1860,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2856,12 +2856,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD0D38-B5A4-4E75-9089-230D60DA4867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3EDC8-D536-449A-A03D-06B69AC0751F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -176,16 +176,16 @@
     <t>BrowserURL</t>
   </si>
   <si>
-    <t>https://id.atlassian.com/login?continue=https%3A%2F%2Fgriffinsolutionsgroup.atlassian.net%2Flogin%3FredirectCount%3D1%26application%3Djira&amp;application=jira</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
   </si>
   <si>
     <t>C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\Output\BuildTable.xlsx</t>
   </si>
   <si>
-    <t>Data\Input</t>
+    <t>C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\Input\</t>
+  </si>
+  <si>
+    <t>https://griffinsolutionsgroup.atlassian.net/jira/software/c/projects/GRD/boards/213</t>
   </si>
 </sst>
 </file>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -622,7 +622,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
@@ -669,7 +669,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -678,7 +678,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -687,7 +687,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE3EDC8-D536-449A-A03D-06B69AC0751F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613BFDBE-4609-45B0-BBD0-5B8DAEEA0A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,10 @@
     <t>C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\Output\BuildTable.xlsx</t>
   </si>
   <si>
-    <t>C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\Input\</t>
-  </si>
-  <si>
     <t>https://griffinsolutionsgroup.atlassian.net/jira/software/c/projects/GRD/boards/213</t>
+  </si>
+  <si>
+    <t>C:\Users\Admin\Documents\UiPath\Jira_Bot_In_Reframework\Data\Input</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -678,7 +678,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -687,7 +687,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
